--- a/assets/ChartBuilder/public/Data/Backups/Catalyst/CFH/cfh.xlsx
+++ b/assets/ChartBuilder/public/Data/Backups/Catalyst/CFH/cfh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Dropbox (Catalyst Funds)\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CFH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Marketing Team Files\Marketing Materials\AutoCharts&amp;Tables\Backup Files\Catalyst\CFH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F126DC35-666F-4990-880B-080C75C693D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF589CF4-5195-46D2-AF8C-36E464A8DFBD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CFH Fact Sheet Backup" sheetId="1" r:id="rId1"/>
@@ -747,20 +747,20 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1078,35 +1078,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y116"/>
+  <dimension ref="A1:Y119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="8" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" style="8" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.88671875" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="25.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1144,10 +1144,10 @@
         <v>6</v>
       </c>
       <c r="N1" s="7">
-        <v>44196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>44286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>42277</v>
       </c>
@@ -1173,16 +1173,16 @@
         <v>7</v>
       </c>
       <c r="N2" s="13"/>
-      <c r="O2" s="91">
-        <v>7.2300000000000001E-4</v>
-      </c>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="90"/>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="O2" s="90">
+        <v>1.7699999999999999E-4</v>
+      </c>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="91"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>42308</v>
       </c>
@@ -1227,11 +1227,11 @@
         <v>8</v>
       </c>
       <c r="O3" s="14">
-        <f>COUNTA(C2:C149)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>COUNTA(C2:C152)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>42338</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>-7.6680725704072944E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>42369</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>BCOM</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>42400</v>
       </c>
@@ -1385,12 +1385,12 @@
         <v>41</v>
       </c>
       <c r="O6" s="24">
-        <f>STDEV(C3:C149)*SQRT(12)</f>
-        <v>8.4584425885429054E-2</v>
+        <f>STDEV(C3:C152)*SQRT(12)</f>
+        <v>8.3431569149803167E-2</v>
       </c>
       <c r="P6" s="25">
-        <f>STDEV(J3:J149)*SQRT(12)</f>
-        <v>0.12673166081314116</v>
+        <f>STDEV(J3:J152)*SQRT(12)</f>
+        <v>0.12766508644786378</v>
       </c>
       <c r="Q6" s="26"/>
       <c r="R6" s="25"/>
@@ -1399,22 +1399,22 @@
       </c>
       <c r="V6" s="27">
         <f>EOMONTH(N1,-3)</f>
-        <v>44104</v>
+        <v>44196</v>
       </c>
       <c r="W6" s="28">
-        <f>SUMIF($A$2:$A$182,$V6,$B$2:$B$182)</f>
-        <v>11121</v>
+        <f>SUMIF($A$2:$A$185,$V6,$B$2:$B$185)</f>
+        <v>10632</v>
       </c>
       <c r="X6" s="28">
-        <f t="shared" ref="X6:X11" si="4">SUMIF($A$2:$A$182,$V6,$E$2:$E$182)</f>
-        <v>19379.55335460218</v>
+        <f t="shared" ref="X6:X11" si="4">SUMIF($A$2:$A$185,$V6,$E$2:$E$185)</f>
+        <v>21733.839004865338</v>
       </c>
       <c r="Y6" s="29">
-        <f t="shared" ref="Y6:Y11" si="5">SUMIF($A$2:$A$182,$V6,$I$2:$I$182)</f>
-        <v>8547.2748792396123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+        <f t="shared" ref="Y6:Y11" si="5">SUMIF($A$2:$A$185,$V6,$I$2:$I$185)</f>
+        <v>9418.4057707242682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>42429</v>
       </c>
@@ -1460,7 +1460,7 @@
       </c>
       <c r="O7" s="33">
         <f>((O14-O2)-O8*(P14-O2))*100</f>
-        <v>1.1620368748759231</v>
+        <v>0.34876519920877047</v>
       </c>
       <c r="P7" s="34"/>
       <c r="Q7" s="35"/>
@@ -1470,22 +1470,22 @@
       </c>
       <c r="V7" s="27">
         <f>EOMONTH(N1,-6)</f>
-        <v>44012</v>
+        <v>44104</v>
       </c>
       <c r="W7" s="28">
-        <f t="shared" ref="W7:W12" si="6">SUMIF($A$2:$A$116,$V7,$B$2:$B$116)</f>
-        <v>11360</v>
+        <f t="shared" ref="W7:W12" si="6">SUMIF($A$2:$A$119,$V7,$B$2:$B$119)</f>
+        <v>11121</v>
       </c>
       <c r="X7" s="28">
         <f t="shared" si="4"/>
-        <v>17790.945529204513</v>
+        <v>19379.55335460218</v>
       </c>
       <c r="Y7" s="29">
         <f t="shared" si="5"/>
-        <v>7836.1818804593713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+        <v>8547.2748792396123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>42460</v>
       </c>
@@ -1530,8 +1530,8 @@
         <v>43</v>
       </c>
       <c r="O8" s="30">
-        <f>COVAR(C3:C65,J3:J65)/VAR(J3:J65)</f>
-        <v>4.986846090862844E-2</v>
+        <f>COVAR(C3:C68,J3:J68)/VAR(J3:J68)</f>
+        <v>2.8982607503738631E-2</v>
       </c>
       <c r="P8" s="30"/>
       <c r="Q8" s="32"/>
@@ -1540,22 +1540,22 @@
         <v>29</v>
       </c>
       <c r="V8" s="78">
-        <v>43830</v>
+        <v>44196</v>
       </c>
       <c r="W8" s="28">
         <f t="shared" si="6"/>
-        <v>11880</v>
+        <v>10632</v>
       </c>
       <c r="X8" s="28">
         <f t="shared" si="4"/>
-        <v>18356.464818201955</v>
+        <v>21733.839004865338</v>
       </c>
       <c r="Y8" s="29">
         <f t="shared" si="5"/>
-        <v>9722.1126313159712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+        <v>9418.4057707242682</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>42490</v>
       </c>
@@ -1600,8 +1600,8 @@
         <v>50</v>
       </c>
       <c r="O9" s="36">
-        <f>RSQ(C3:C65,J3:J65)</f>
-        <v>5.7642006536515709E-3</v>
+        <f>RSQ(C3:C68,J3:J68)</f>
+        <v>2.0277739174538582E-3</v>
       </c>
       <c r="P9" s="36"/>
       <c r="Q9" s="35"/>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="V9" s="27">
         <f>EOMONTH(V12,-12)</f>
-        <v>43830</v>
+        <v>43921</v>
       </c>
       <c r="W9" s="28">
         <f t="shared" si="6"/>
-        <v>11880</v>
+        <v>11797</v>
       </c>
       <c r="X9" s="28">
         <f t="shared" si="4"/>
-        <v>18356.464818201955</v>
+        <v>14758.961057876815</v>
       </c>
       <c r="Y9" s="29">
         <f t="shared" si="5"/>
-        <v>9722.1126313159712</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+        <v>7457.350924652078</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>42521</v>
       </c>
@@ -1672,11 +1672,11 @@
       </c>
       <c r="O10" s="40">
         <f>O15/$O$3</f>
-        <v>0.52380952380952384</v>
+        <v>0.5</v>
       </c>
       <c r="P10" s="41">
         <f>P15/$O$3</f>
-        <v>0.46031746031746029</v>
+        <v>0.46969696969696972</v>
       </c>
       <c r="Q10" s="42"/>
       <c r="R10" s="41"/>
@@ -1685,22 +1685,22 @@
       </c>
       <c r="V10" s="27">
         <f>EOMONTH(V12,-36)</f>
-        <v>43100</v>
+        <v>43190</v>
       </c>
       <c r="W10" s="28">
         <f t="shared" si="6"/>
-        <v>11392.13</v>
+        <v>11752.64</v>
       </c>
       <c r="X10" s="28">
         <f t="shared" si="4"/>
-        <v>14600.873347767762</v>
+        <v>14490.038289493226</v>
       </c>
       <c r="Y10" s="29">
         <f t="shared" si="5"/>
-        <v>10171.636315951906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10130.872266994351</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>42551</v>
       </c>
@@ -1746,11 +1746,11 @@
       </c>
       <c r="N11" s="43"/>
       <c r="O11" s="44">
-        <f>MIN(D2:D242)</f>
-        <v>-0.13896987366375121</v>
+        <f>MIN(D2:D245)</f>
+        <v>-0.17355037252996436</v>
       </c>
       <c r="P11" s="68">
-        <f>MIN(K2:K116)</f>
+        <f>MIN(K2:K119)</f>
         <v>-0.30335152898729112</v>
       </c>
       <c r="Q11" s="45"/>
@@ -1775,7 +1775,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>42582</v>
       </c>
@@ -1821,11 +1821,11 @@
       </c>
       <c r="O12" s="30">
         <f>(O14-$O$2)/O6</f>
-        <v>0.13026501104645444</v>
+        <v>4.2183040977880636E-2</v>
       </c>
       <c r="P12" s="31">
         <f>(P14-$O$2)/P6</f>
-        <v>-9.5250929643936139E-2</v>
+        <v>8.5796574532679588E-3</v>
       </c>
       <c r="Q12" s="32"/>
       <c r="R12" s="31"/>
@@ -1834,22 +1834,22 @@
       </c>
       <c r="V12" s="38">
         <f>N1</f>
-        <v>44196</v>
+        <v>44286</v>
       </c>
       <c r="W12" s="39">
         <f t="shared" si="6"/>
-        <v>10632</v>
+        <v>10205</v>
       </c>
       <c r="X12" s="39">
-        <f>SUMIF($A$2:$A$116,$V12,$E$2:$E$116)</f>
-        <v>21733.839004865338</v>
+        <f>SUMIF($A$2:$A$119,$V12,$E$2:$E$119)</f>
+        <v>23075.875938680816</v>
       </c>
       <c r="Y12" s="82">
-        <f>SUMIF($A$2:$A$116,$V12,$I$2:$I$116)</f>
-        <v>9418.4057707242682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUMIF($A$2:$A$119,$V12,$I$2:$I$119)</f>
+        <v>10070.178373801582</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>42613</v>
       </c>
@@ -1896,16 +1896,16 @@
       <c r="N13" s="16"/>
       <c r="O13" s="48">
         <f>(W12-$W$11)/W11</f>
-        <v>6.3200000000000006E-2</v>
+        <v>2.0500000000000001E-2</v>
       </c>
       <c r="P13" s="48">
         <f>(Y12-$X$11)/W11</f>
-        <v>-5.815942292757318E-2</v>
+        <v>7.0178373801581982E-3</v>
       </c>
       <c r="Q13" s="49"/>
       <c r="R13" s="11"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>42643</v>
       </c>
@@ -1951,11 +1951,11 @@
       </c>
       <c r="O14" s="11">
         <f>(1+O13)^(12/O3)-1</f>
-        <v>1.1741391172323423E-2</v>
+        <v>3.696397300295029E-3</v>
       </c>
       <c r="P14" s="11">
         <f>(1+P13)^(12/O3)-1</f>
-        <v>-1.1348308507771687E-2</v>
+        <v>1.272322710464513E-3</v>
       </c>
       <c r="Q14" s="50"/>
       <c r="R14" s="11"/>
@@ -1970,7 +1970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>42674</v>
       </c>
@@ -2016,12 +2016,12 @@
       </c>
       <c r="N15" s="43"/>
       <c r="O15" s="52">
-        <f>COUNTIF(C2:C212,"&gt;0")</f>
+        <f>COUNTIF(C2:C215,"&gt;0")</f>
         <v>33</v>
       </c>
       <c r="P15" s="52">
-        <f>COUNTIF(J2:J212,"&gt;0")</f>
-        <v>29</v>
+        <f>COUNTIF(J2:J215,"&gt;0")</f>
+        <v>31</v>
       </c>
       <c r="Q15" s="53"/>
       <c r="U15" s="23" t="s">
@@ -2029,18 +2029,18 @@
       </c>
       <c r="V15" s="11">
         <f>($W$12-W6)/W6</f>
-        <v>-4.3970865929322901E-2</v>
+        <v>-4.0161775771256583E-2</v>
       </c>
       <c r="W15" s="11">
         <f>($X$12-X6)/X6</f>
-        <v>0.12148296749594964</v>
+        <v>6.1748728952811756E-2</v>
       </c>
       <c r="X15" s="50">
         <f>($Y$12-Y6)/Y6</f>
-        <v>0.10191913841457664</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+        <v>6.9202009229975339E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>42704</v>
       </c>
@@ -2086,18 +2086,18 @@
       </c>
       <c r="V16" s="11">
         <f>($W$12-W7)/W7</f>
-        <v>-6.4084507042253519E-2</v>
+        <v>-8.2366693642658029E-2</v>
       </c>
       <c r="W16" s="11">
         <f>($X$12-X7)/X7</f>
-        <v>0.22162360450086341</v>
+        <v>0.19073311528105202</v>
       </c>
       <c r="X16" s="50">
         <f>($Y$12-Y7)/Y7</f>
-        <v>0.20191260417402973</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0.17817415680182863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>42735</v>
       </c>
@@ -2143,18 +2143,18 @@
       </c>
       <c r="V17" s="11">
         <f>($W$12-W8)/W8</f>
-        <v>-0.10505050505050505</v>
+        <v>-4.0161775771256583E-2</v>
       </c>
       <c r="W17" s="11">
         <f>($X$12-X8)/X8</f>
-        <v>0.18398826898926837</v>
+        <v>6.1748728952811756E-2</v>
       </c>
       <c r="X17" s="50">
         <f>($Y$12-Y8)/Y8</f>
-        <v>-3.1238772076496054E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+        <v>6.9202009229975339E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>42766</v>
       </c>
@@ -2222,18 +2222,18 @@
       </c>
       <c r="V18" s="11">
         <f>($W$12-W9)/W9</f>
-        <v>-0.10505050505050505</v>
+        <v>-0.13494956344833431</v>
       </c>
       <c r="W18" s="11">
         <f>($X$12-X9)/X9</f>
-        <v>0.18398826898926837</v>
+        <v>0.56351628330676351</v>
       </c>
       <c r="X18" s="50">
         <f>($Y$12-Y9)/Y9</f>
-        <v>-3.1238772076496054E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+        <v>0.35036938392052475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>42794</v>
       </c>
@@ -2278,22 +2278,22 @@
         <v>22</v>
       </c>
       <c r="N19" s="60">
-        <v>-4.5</v>
+        <v>-4.03</v>
       </c>
       <c r="O19" s="60">
-        <v>-6.52</v>
+        <v>-8.35</v>
       </c>
       <c r="P19" s="60">
-        <v>-10.7</v>
+        <v>-4.03</v>
       </c>
       <c r="Q19" s="60">
-        <v>-10.7</v>
+        <v>-13.69</v>
       </c>
       <c r="R19" s="60">
-        <v>-2.56</v>
+        <v>-4.82</v>
       </c>
       <c r="S19" s="60">
-        <v>0.91</v>
+        <v>0.11</v>
       </c>
       <c r="T19" s="61" t="s">
         <v>24</v>
@@ -2303,18 +2303,18 @@
       </c>
       <c r="V19" s="11">
         <f>($W$12/W10)^(1/3)-1</f>
-        <v>-2.2755251656766395E-2</v>
+        <v>-4.5976237898482597E-2</v>
       </c>
       <c r="W19" s="11">
         <f>($X$12/X10)^(1/3)-1</f>
-        <v>0.14178904188562025</v>
+        <v>0.16778498637956663</v>
       </c>
       <c r="X19" s="50">
         <f>($Y$12/Y10)^(1/3)-1</f>
-        <v>-2.5319693636988938E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+        <v>-2.000995965573904E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>42825</v>
       </c>
@@ -2359,22 +2359,22 @@
         <v>23</v>
       </c>
       <c r="N20" s="60">
-        <v>-4.62</v>
+        <v>-4.24</v>
       </c>
       <c r="O20" s="84">
-        <v>-6.87</v>
+        <v>-8.67</v>
       </c>
       <c r="P20" s="60">
-        <v>-11.37</v>
+        <v>-4.24</v>
       </c>
       <c r="Q20" s="60">
-        <v>-11.37</v>
+        <v>-14.36</v>
       </c>
       <c r="R20" s="60">
-        <v>-3.25</v>
+        <v>-5.55</v>
       </c>
       <c r="S20" s="60">
-        <v>0.18</v>
+        <v>-0.62</v>
       </c>
       <c r="T20" s="61" t="s">
         <v>24</v>
@@ -2384,18 +2384,18 @@
       </c>
       <c r="V20" s="11">
         <f>(W12/W11)^(12/$O$3)-1</f>
-        <v>1.1741391172323423E-2</v>
+        <v>3.696397300295029E-3</v>
       </c>
       <c r="W20" s="11">
         <f>(X12/X11)^(12/$O$3)-1</f>
-        <v>0.15935507069680432</v>
+        <v>0.16420313063863001</v>
       </c>
       <c r="X20" s="50">
         <f>(Y12/Y11)^(12/$O$3)-1</f>
-        <v>-1.1348308507771687E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>1.272322710464513E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>42855</v>
       </c>
@@ -2439,29 +2439,26 @@
       <c r="M21" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="79">
-        <f>V15*100</f>
-        <v>-4.3970865929322898</v>
-      </c>
-      <c r="O21" s="79">
-        <f>V16*100</f>
-        <v>-6.408450704225352</v>
-      </c>
-      <c r="P21" s="79">
-        <f>V17*100</f>
-        <v>-10.505050505050505</v>
+      <c r="N21" s="60">
+        <v>-4.01</v>
+      </c>
+      <c r="O21" s="60">
+        <v>-8.23</v>
+      </c>
+      <c r="P21" s="60">
+        <v>-4.01</v>
       </c>
       <c r="Q21" s="79">
         <f>V18*100</f>
-        <v>-10.505050505050505</v>
+        <v>-13.494956344833431</v>
       </c>
       <c r="R21" s="79">
         <f>V19*100</f>
-        <v>-2.2755251656766395</v>
+        <v>-4.5976237898482601</v>
       </c>
       <c r="S21" s="79">
         <f>V20*100</f>
-        <v>1.1741391172323423</v>
+        <v>0.3696397300295029</v>
       </c>
       <c r="T21" s="61"/>
       <c r="U21" s="37"/>
@@ -2469,7 +2466,7 @@
       <c r="W21" s="54"/>
       <c r="X21" s="55"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>42886</v>
       </c>
@@ -2515,32 +2512,32 @@
       </c>
       <c r="N22" s="63">
         <f>W15*100</f>
-        <v>12.148296749594964</v>
+        <v>6.174872895281176</v>
       </c>
       <c r="O22" s="63">
         <f>W16*100</f>
-        <v>22.162360450086339</v>
+        <v>19.073311528105201</v>
       </c>
       <c r="P22" s="63">
         <f>W17*100</f>
-        <v>18.398826898926838</v>
+        <v>6.174872895281176</v>
       </c>
       <c r="Q22" s="63">
         <f>W18*100</f>
-        <v>18.398826898926838</v>
+        <v>56.351628330676348</v>
       </c>
       <c r="R22" s="63">
         <f>W19*100</f>
-        <v>14.178904188562026</v>
-      </c>
-      <c r="S22" s="94">
-        <v>15.93</v>
+        <v>16.778498637956663</v>
+      </c>
+      <c r="S22" s="92">
+        <v>16.420000000000002</v>
       </c>
       <c r="T22" s="61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>42916</v>
       </c>
@@ -2586,31 +2583,31 @@
       </c>
       <c r="N23" s="63">
         <f>X15*100</f>
-        <v>10.191913841457664</v>
+        <v>6.9202009229975339</v>
       </c>
       <c r="O23" s="63">
         <f>X16*100</f>
-        <v>20.191260417402972</v>
+        <v>17.817415680182862</v>
       </c>
       <c r="P23" s="63">
         <f>X17*100</f>
-        <v>-3.1238772076496053</v>
+        <v>6.9202009229975339</v>
       </c>
       <c r="Q23" s="63">
         <f>X18*100</f>
-        <v>-3.1238772076496053</v>
+        <v>35.036938392052477</v>
       </c>
       <c r="R23" s="63">
         <f>X19*100</f>
-        <v>-2.5319693636988938</v>
+        <v>-0.2000995965573904</v>
       </c>
       <c r="S23" s="63">
         <f>X20*100</f>
-        <v>-1.1348308507771687</v>
+        <v>0.1272322710464513</v>
       </c>
       <c r="T23" s="61"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>42947</v>
       </c>
@@ -2655,28 +2652,28 @@
         <v>27</v>
       </c>
       <c r="N24" s="85">
-        <v>-9.99</v>
+        <v>-9.5399999999999991</v>
       </c>
       <c r="O24" s="65">
-        <v>-11.86</v>
-      </c>
-      <c r="P24" s="65">
-        <v>-15.87</v>
+        <v>-13.62</v>
+      </c>
+      <c r="P24" s="85">
+        <v>-9.5399999999999991</v>
       </c>
       <c r="Q24" s="65">
-        <v>-15.87</v>
+        <v>-18.649999999999999</v>
       </c>
       <c r="R24" s="65">
-        <v>-4.45</v>
+        <v>-6.67</v>
       </c>
       <c r="S24" s="65">
-        <v>-0.22</v>
+        <v>-0.96</v>
       </c>
       <c r="T24" s="61" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>42978</v>
       </c>
@@ -2722,7 +2719,7 @@
       <c r="Q25"/>
       <c r="R25"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>43008</v>
       </c>
@@ -2770,7 +2767,7 @@
       <c r="R26" s="83"/>
       <c r="S26" s="83"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <f>EOMONTH(A26,1)</f>
         <v>43039</v>
@@ -2817,9 +2814,9 @@
       <c r="Q27"/>
       <c r="R27"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
-        <f t="shared" ref="A28:A65" si="7">EOMONTH(A27,1)</f>
+        <f t="shared" ref="A28:A68" si="7">EOMONTH(A27,1)</f>
         <v>43069</v>
       </c>
       <c r="B28" s="77">
@@ -2864,7 +2861,7 @@
       <c r="Q28"/>
       <c r="R28"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <f t="shared" si="7"/>
         <v>43100</v>
@@ -2911,7 +2908,7 @@
       <c r="Q29"/>
       <c r="R29"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <f t="shared" si="7"/>
         <v>43131</v>
@@ -2958,7 +2955,7 @@
       <c r="Q30"/>
       <c r="R30"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <f t="shared" si="7"/>
         <v>43159</v>
@@ -3005,7 +3002,7 @@
       <c r="Q31"/>
       <c r="R31"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <f t="shared" si="7"/>
         <v>43190</v>
@@ -3052,7 +3049,7 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <f t="shared" si="7"/>
         <v>43220</v>
@@ -3099,7 +3096,7 @@
       <c r="Q33"/>
       <c r="R33"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <f t="shared" si="7"/>
         <v>43251</v>
@@ -3146,7 +3143,7 @@
       <c r="Q34"/>
       <c r="R34"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <f t="shared" si="7"/>
         <v>43281</v>
@@ -3193,7 +3190,7 @@
       <c r="Q35"/>
       <c r="R35"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <f t="shared" si="7"/>
         <v>43312</v>
@@ -3240,7 +3237,7 @@
       <c r="Q36"/>
       <c r="R36"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <f t="shared" si="7"/>
         <v>43343</v>
@@ -3287,7 +3284,7 @@
       <c r="Q37"/>
       <c r="R37"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <f t="shared" si="7"/>
         <v>43373</v>
@@ -3334,7 +3331,7 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <f t="shared" si="7"/>
         <v>43404</v>
@@ -3381,7 +3378,7 @@
       <c r="Q39"/>
       <c r="R39"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <f t="shared" si="7"/>
         <v>43434</v>
@@ -3428,7 +3425,7 @@
       <c r="Q40"/>
       <c r="R40"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <f t="shared" si="7"/>
         <v>43465</v>
@@ -3475,7 +3472,7 @@
       <c r="Q41"/>
       <c r="R41"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <f t="shared" si="7"/>
         <v>43496</v>
@@ -3522,7 +3519,7 @@
       <c r="Q42"/>
       <c r="R42"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <f t="shared" si="7"/>
         <v>43524</v>
@@ -3569,7 +3566,7 @@
       <c r="Q43"/>
       <c r="R43"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <f t="shared" si="7"/>
         <v>43555</v>
@@ -3616,7 +3613,7 @@
       <c r="Q44"/>
       <c r="R44"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <f t="shared" si="7"/>
         <v>43585</v>
@@ -3663,7 +3660,7 @@
       <c r="Q45"/>
       <c r="R45"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <f t="shared" si="7"/>
         <v>43616</v>
@@ -3710,7 +3707,7 @@
       <c r="Q46"/>
       <c r="R46"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <f t="shared" si="7"/>
         <v>43646</v>
@@ -3757,7 +3754,7 @@
       <c r="Q47"/>
       <c r="R47"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <f t="shared" si="7"/>
         <v>43677</v>
@@ -3804,7 +3801,7 @@
       <c r="Q48"/>
       <c r="R48"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <f t="shared" si="7"/>
         <v>43708</v>
@@ -3851,7 +3848,7 @@
       <c r="Q49"/>
       <c r="R49"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <f t="shared" si="7"/>
         <v>43738</v>
@@ -3898,7 +3895,7 @@
       <c r="Q50"/>
       <c r="R50"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <f t="shared" si="7"/>
         <v>43769</v>
@@ -3945,7 +3942,7 @@
       <c r="Q51"/>
       <c r="R51"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <f t="shared" si="7"/>
         <v>43799</v>
@@ -3992,7 +3989,7 @@
       <c r="Q52"/>
       <c r="R52"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <f t="shared" si="7"/>
         <v>43830</v>
@@ -4039,7 +4036,7 @@
       <c r="Q53"/>
       <c r="R53"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <f t="shared" si="7"/>
         <v>43861</v>
@@ -4086,7 +4083,7 @@
       <c r="Q54"/>
       <c r="R54"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <f t="shared" si="7"/>
         <v>43890</v>
@@ -4133,7 +4130,7 @@
       <c r="Q55"/>
       <c r="R55"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <f t="shared" si="7"/>
         <v>43921</v>
@@ -4180,7 +4177,7 @@
       <c r="Q56"/>
       <c r="R56"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <f t="shared" si="7"/>
         <v>43951</v>
@@ -4227,7 +4224,7 @@
       <c r="Q57"/>
       <c r="R57"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <f>EOMONTH(A57,1)</f>
         <v>43982</v>
@@ -4274,7 +4271,7 @@
       <c r="Q58"/>
       <c r="R58"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <f t="shared" si="7"/>
         <v>44012</v>
@@ -4283,7 +4280,7 @@
         <v>11360</v>
       </c>
       <c r="C59" s="11">
-        <f t="shared" ref="C59:C65" si="8">B59/B58-1</f>
+        <f t="shared" ref="C59:C68" si="8">B59/B58-1</f>
         <v>1.852015168886112E-3</v>
       </c>
       <c r="D59" s="11">
@@ -4291,7 +4288,7 @@
         <v>-8.0012957563977971E-2</v>
       </c>
       <c r="E59" s="72">
-        <f t="shared" ref="E59:E65" si="9">E58*(1+F59)</f>
+        <f t="shared" ref="E59:E68" si="9">E58*(1+F59)</f>
         <v>17790.945529204513</v>
       </c>
       <c r="F59" s="74">
@@ -4321,7 +4318,7 @@
       <c r="Q59"/>
       <c r="R59"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <f t="shared" si="7"/>
         <v>44043</v>
@@ -4368,7 +4365,7 @@
       <c r="Q60"/>
       <c r="R60"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <f t="shared" si="7"/>
         <v>44074</v>
@@ -4415,7 +4412,7 @@
       <c r="Q61"/>
       <c r="R61"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <f>EOMONTH(A61,1)</f>
         <v>44104</v>
@@ -4462,7 +4459,7 @@
       <c r="Q62"/>
       <c r="R62"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <f t="shared" si="7"/>
         <v>44135</v>
@@ -4509,7 +4506,7 @@
       <c r="Q63"/>
       <c r="R63"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <f t="shared" si="7"/>
         <v>44165</v>
@@ -4556,7 +4553,7 @@
       <c r="Q64"/>
       <c r="R64"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <f t="shared" si="7"/>
         <v>44196</v>
@@ -4603,52 +4600,148 @@
       <c r="Q65"/>
       <c r="R65"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A66" s="69"/>
-      <c r="B66" s="69"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <f t="shared" si="7"/>
+        <v>44227</v>
+      </c>
+      <c r="B66" s="89">
+        <v>10455</v>
+      </c>
+      <c r="C66" s="11">
+        <f t="shared" si="8"/>
+        <v>-1.6647855530473987E-2</v>
+      </c>
+      <c r="D66" s="11">
+        <f>(B66-(MAX($B$2:B66)))/(MAX($B$2:B66))</f>
+        <v>-0.15330417881438291</v>
+      </c>
+      <c r="E66" s="72">
+        <f t="shared" si="9"/>
+        <v>21514.40967797054</v>
+      </c>
+      <c r="F66" s="74">
+        <v>-1.009620651214338E-2</v>
+      </c>
+      <c r="G66" s="11">
+        <f>(E66-(MAX($E$2:E66)))/(MAX($E$2:E66))</f>
+        <v>-1.0096206512143442E-2</v>
+      </c>
+      <c r="H66" s="76">
+        <v>171.00620000000001</v>
+      </c>
+      <c r="I66" s="72">
+        <f>I65*(1+J66)</f>
+        <v>9665.7031459310001</v>
+      </c>
+      <c r="J66" s="11">
+        <f>H66/H65-1</f>
+        <v>2.6256818959257355E-2</v>
+      </c>
+      <c r="K66" s="11">
+        <f>(I66-(MAX($I$2:I66)))/(MAX($I$2:I66))</f>
+        <v>-8.2944403241004175E-2</v>
+      </c>
       <c r="O66"/>
       <c r="P66"/>
       <c r="Q66"/>
       <c r="R66"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A67" s="69"/>
-      <c r="B67" s="69"/>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <f>EOMONTH(A66,1)</f>
+        <v>44255</v>
+      </c>
+      <c r="B67" s="89">
+        <v>10257</v>
+      </c>
+      <c r="C67" s="11">
+        <f t="shared" si="8"/>
+        <v>-1.8938307030129109E-2</v>
+      </c>
+      <c r="D67" s="11">
+        <f>(B67-(MAX($B$2:B67)))/(MAX($B$2:B67))</f>
+        <v>-0.16933916423712342</v>
+      </c>
+      <c r="E67" s="72">
+        <f t="shared" si="9"/>
+        <v>22107.658738939626</v>
+      </c>
+      <c r="F67" s="74">
+        <v>2.7574498666190994E-2</v>
+      </c>
+      <c r="G67" s="11">
+        <f>(E67-(MAX($E$2:E67)))/(MAX($E$2:E67))</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="76">
+        <v>182.0712</v>
+      </c>
+      <c r="I67" s="72">
+        <f t="shared" ref="I67:I68" si="14">I66*(1+J67)</f>
+        <v>10291.124945314452</v>
+      </c>
+      <c r="J67" s="11">
+        <f t="shared" ref="J67:J68" si="15">H67/H66-1</f>
+        <v>6.4705256300648717E-2</v>
+      </c>
+      <c r="K67" s="11">
+        <f>(I67-(MAX($I$2:I67)))/(MAX($I$2:I67))</f>
+        <v>-2.3606085810769006E-2</v>
+      </c>
       <c r="O67"/>
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A68" s="69"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <f t="shared" si="7"/>
+        <v>44286</v>
+      </c>
+      <c r="B68" s="89">
+        <v>10205</v>
+      </c>
+      <c r="C68" s="11">
+        <f t="shared" si="8"/>
+        <v>-5.069708491761693E-3</v>
+      </c>
+      <c r="D68" s="11">
+        <f>(B68-(MAX($B$2:B68)))/(MAX($B$2:B68))</f>
+        <v>-0.17355037252996436</v>
+      </c>
+      <c r="E68" s="72">
+        <f t="shared" si="9"/>
+        <v>23075.875938680816</v>
+      </c>
+      <c r="F68" s="74">
+        <v>4.3795555701961586E-2</v>
+      </c>
+      <c r="G68" s="11">
+        <f>(E68-(MAX($E$2:E68)))/(MAX($E$2:E68))</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="76">
+        <v>178.16220000000001</v>
+      </c>
+      <c r="I68" s="72">
+        <f t="shared" si="14"/>
+        <v>10070.178373801582</v>
+      </c>
+      <c r="J68" s="11">
+        <f t="shared" si="15"/>
+        <v>-2.1469622872810179E-2</v>
+      </c>
+      <c r="K68" s="11">
+        <f>(I68-(MAX($I$2:I68)))/(MAX($I$2:I68))</f>
+        <v>-4.4568894923718717E-2</v>
+      </c>
       <c r="O68"/>
       <c r="P68"/>
       <c r="Q68"/>
       <c r="R68"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="69"/>
       <c r="B69" s="69"/>
       <c r="C69" s="70"/>
@@ -4657,15 +4750,12 @@
       <c r="F69" s="70"/>
       <c r="G69" s="70"/>
       <c r="H69" s="70"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
       <c r="O69"/>
       <c r="P69"/>
       <c r="Q69"/>
       <c r="R69"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="69"/>
       <c r="B70" s="69"/>
       <c r="C70" s="70"/>
@@ -4674,15 +4764,12 @@
       <c r="F70" s="70"/>
       <c r="G70" s="70"/>
       <c r="H70" s="70"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
       <c r="O70"/>
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="69"/>
       <c r="B71" s="69"/>
       <c r="C71" s="70"/>
@@ -4699,7 +4786,7 @@
       <c r="Q71"/>
       <c r="R71"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="69"/>
       <c r="B72" s="69"/>
       <c r="C72" s="70"/>
@@ -4716,7 +4803,7 @@
       <c r="Q72"/>
       <c r="R72"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="69"/>
       <c r="B73" s="69"/>
       <c r="C73" s="70"/>
@@ -4733,15 +4820,15 @@
       <c r="Q73"/>
       <c r="R73"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A74" s="9"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
       <c r="I74" s="28"/>
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
@@ -4750,15 +4837,15 @@
       <c r="Q74"/>
       <c r="R74"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A75" s="69"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70"/>
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
       <c r="I75" s="28"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
@@ -4767,15 +4854,15 @@
       <c r="Q75"/>
       <c r="R75"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A76" s="69"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="G76" s="70"/>
+      <c r="H76" s="70"/>
       <c r="I76" s="28"/>
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
@@ -4784,7 +4871,7 @@
       <c r="Q76"/>
       <c r="R76"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="11"/>
@@ -4801,7 +4888,7 @@
       <c r="Q77"/>
       <c r="R77"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="11"/>
@@ -4818,7 +4905,7 @@
       <c r="Q78"/>
       <c r="R78"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="11"/>
@@ -4835,7 +4922,7 @@
       <c r="Q79"/>
       <c r="R79"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="11"/>
@@ -4852,7 +4939,7 @@
       <c r="Q80"/>
       <c r="R80"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="11"/>
@@ -4869,7 +4956,7 @@
       <c r="Q81"/>
       <c r="R81"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
       <c r="C82" s="11"/>
@@ -4886,7 +4973,7 @@
       <c r="Q82"/>
       <c r="R82"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
       <c r="B83" s="10"/>
       <c r="C83" s="11"/>
@@ -4903,7 +4990,7 @@
       <c r="Q83"/>
       <c r="R83"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
       <c r="B84" s="10"/>
       <c r="C84" s="11"/>
@@ -4920,7 +5007,7 @@
       <c r="Q84"/>
       <c r="R84"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="11"/>
@@ -4937,7 +5024,7 @@
       <c r="Q85"/>
       <c r="R85"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="9"/>
       <c r="B86" s="10"/>
       <c r="C86" s="11"/>
@@ -4954,7 +5041,7 @@
       <c r="Q86"/>
       <c r="R86"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="11"/>
@@ -4971,7 +5058,7 @@
       <c r="Q87"/>
       <c r="R87"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="11"/>
@@ -4988,7 +5075,7 @@
       <c r="Q88"/>
       <c r="R88"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="11"/>
@@ -5005,7 +5092,7 @@
       <c r="Q89"/>
       <c r="R89"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="11"/>
@@ -5022,7 +5109,7 @@
       <c r="Q90"/>
       <c r="R90"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
@@ -5039,7 +5126,7 @@
       <c r="Q91"/>
       <c r="R91"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
@@ -5056,7 +5143,7 @@
       <c r="Q92"/>
       <c r="R92"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="9"/>
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
@@ -5068,8 +5155,12 @@
       <c r="I93" s="28"/>
       <c r="J93" s="11"/>
       <c r="K93" s="11"/>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O93"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="9"/>
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
@@ -5081,8 +5172,12 @@
       <c r="I94" s="28"/>
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O94"/>
+      <c r="P94"/>
+      <c r="Q94"/>
+      <c r="R94"/>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="9"/>
       <c r="B95" s="10"/>
       <c r="C95" s="11"/>
@@ -5094,8 +5189,12 @@
       <c r="I95" s="28"/>
       <c r="J95" s="11"/>
       <c r="K95" s="11"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="O95"/>
+      <c r="P95"/>
+      <c r="Q95"/>
+      <c r="R95"/>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="11"/>
@@ -5108,7 +5207,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="11"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="11"/>
@@ -5121,7 +5220,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="11"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="11"/>
@@ -5134,7 +5233,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="11"/>
@@ -5147,7 +5246,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
       <c r="C100" s="11"/>
@@ -5160,7 +5259,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="C101" s="11"/>
@@ -5173,7 +5272,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="11"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="11"/>
@@ -5186,7 +5285,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="10"/>
       <c r="C103" s="11"/>
@@ -5199,7 +5298,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
       <c r="C104" s="11"/>
@@ -5212,7 +5311,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="11"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="11"/>
@@ -5225,7 +5324,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="11"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="11"/>
@@ -5238,46 +5337,46 @@
       <c r="J106" s="11"/>
       <c r="K106" s="11"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="9"/>
-      <c r="B107" s="66"/>
+      <c r="B107" s="10"/>
       <c r="C107" s="11"/>
       <c r="D107" s="11"/>
-      <c r="E107" s="67"/>
+      <c r="E107" s="28"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
-      <c r="I107" s="67"/>
+      <c r="I107" s="28"/>
       <c r="J107" s="11"/>
       <c r="K107" s="11"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="9"/>
-      <c r="B108" s="66"/>
+      <c r="B108" s="10"/>
       <c r="C108" s="11"/>
       <c r="D108" s="11"/>
-      <c r="E108" s="67"/>
+      <c r="E108" s="28"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
-      <c r="I108" s="67"/>
+      <c r="I108" s="28"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
-      <c r="B109" s="66"/>
+      <c r="B109" s="10"/>
       <c r="C109" s="11"/>
       <c r="D109" s="11"/>
-      <c r="E109" s="67"/>
+      <c r="E109" s="28"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
-      <c r="I109" s="67"/>
+      <c r="I109" s="28"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="9"/>
       <c r="B110" s="66"/>
       <c r="C110" s="11"/>
@@ -5290,7 +5389,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="11"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="9"/>
       <c r="B111" s="66"/>
       <c r="C111" s="11"/>
@@ -5303,7 +5402,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="9"/>
       <c r="B112" s="66"/>
       <c r="C112" s="11"/>
@@ -5316,57 +5415,96 @@
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="9"/>
-      <c r="B113" s="10"/>
+      <c r="B113" s="66"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
-      <c r="E113" s="28"/>
+      <c r="E113" s="67"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
-      <c r="I113" s="28"/>
+      <c r="I113" s="67"/>
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="9"/>
-      <c r="B114" s="10"/>
+      <c r="B114" s="66"/>
       <c r="C114" s="11"/>
       <c r="D114" s="11"/>
-      <c r="E114" s="28"/>
+      <c r="E114" s="67"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
-      <c r="I114" s="28"/>
+      <c r="I114" s="67"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="9"/>
-      <c r="B115" s="10"/>
+      <c r="B115" s="66"/>
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
-      <c r="E115" s="28"/>
+      <c r="E115" s="67"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
-      <c r="I115" s="28"/>
+      <c r="I115" s="67"/>
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="9"/>
-      <c r="B116" s="66"/>
+      <c r="B116" s="10"/>
       <c r="C116" s="11"/>
       <c r="D116" s="11"/>
-      <c r="E116" s="67"/>
+      <c r="E116" s="28"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
-      <c r="I116" s="67"/>
+      <c r="I116" s="28"/>
       <c r="J116" s="11"/>
       <c r="K116" s="11"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="9"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118" s="9"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="9"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="67"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5380,22 +5518,22 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4412F091-7499-4BFE-8B1B-E0DEBA502ECB}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="str">
         <f>'CFH Fact Sheet Backup'!A1</f>
         <v>Date</v>
@@ -5408,7 +5546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <f>'CFH Fact Sheet Backup'!A2</f>
         <v>42277</v>
@@ -5422,7 +5560,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <f>'CFH Fact Sheet Backup'!A3</f>
         <v>42308</v>
@@ -5436,7 +5574,7 @@
         <v>9955.3811144660376</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f>'CFH Fact Sheet Backup'!A4</f>
         <v>42338</v>
@@ -5450,7 +5588,7 @@
         <v>9233.1927429592706</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f>'CFH Fact Sheet Backup'!A5</f>
         <v>42369</v>
@@ -5464,7 +5602,7 @@
         <v>8948.2796237408202</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f>'CFH Fact Sheet Backup'!A6</f>
         <v>42400</v>
@@ -5478,7 +5616,7 @@
         <v>8797.8901269835187</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>'CFH Fact Sheet Backup'!A7</f>
         <v>42429</v>
@@ -5492,7 +5630,7 @@
         <v>8654.7863844006879</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f>'CFH Fact Sheet Backup'!A8</f>
         <v>42460</v>
@@ -5506,7 +5644,7 @@
         <v>8985.5449280637768</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f>'CFH Fact Sheet Backup'!A9</f>
         <v>42490</v>
@@ -5520,7 +5658,7 @@
         <v>9750.4078100571678</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f>'CFH Fact Sheet Backup'!A10</f>
         <v>42521</v>
@@ -5534,7 +5672,7 @@
         <v>9731.9871173848624</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <f>'CFH Fact Sheet Backup'!A11</f>
         <v>42551</v>
@@ -5548,7 +5686,7 @@
         <v>10133.997962928004</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <f>'CFH Fact Sheet Backup'!A12</f>
         <v>42582</v>
@@ -5562,7 +5700,7 @@
         <v>9615.9972326569114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <f>'CFH Fact Sheet Backup'!A13</f>
         <v>42613</v>
@@ -5576,7 +5714,7 @@
         <v>9446.5539908863084</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <f>'CFH Fact Sheet Backup'!A14</f>
         <v>42643</v>
@@ -5590,7 +5728,7 @@
         <v>9742.4211765051678</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <f>'CFH Fact Sheet Backup'!A15</f>
         <v>42674</v>
@@ -5604,7 +5742,7 @@
         <v>9694.8292058697534</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <f>'CFH Fact Sheet Backup'!A16</f>
         <v>42704</v>
@@ -5618,7 +5756,7 @@
         <v>9824.113189758571</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <f>'CFH Fact Sheet Backup'!A17</f>
         <v>42735</v>
@@ -5632,7 +5770,7 @@
         <v>10001.192625392408</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <f>'CFH Fact Sheet Backup'!A18</f>
         <v>42766</v>
@@ -5646,7 +5784,7 @@
         <v>10014.741075940281</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <f>'CFH Fact Sheet Backup'!A19</f>
         <v>42794</v>
@@ -5660,7 +5798,7 @@
         <v>10035.648759952206</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <f>'CFH Fact Sheet Backup'!A20</f>
         <v>42825</v>
@@ -5674,7 +5812,7 @@
         <v>9768.5515423302895</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <f>'CFH Fact Sheet Backup'!A21</f>
         <v>42855</v>
@@ -5688,7 +5826,7 @@
         <v>9621.4742658571158</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <f>'CFH Fact Sheet Backup'!A22</f>
         <v>42886</v>
@@ -5702,7 +5840,7 @@
         <v>9493.6768245190251</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <f>'CFH Fact Sheet Backup'!A23</f>
         <v>42916</v>
@@ -5716,7 +5854,7 @@
         <v>9475.4313516911006</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <f>'CFH Fact Sheet Backup'!A24</f>
         <v>42947</v>
@@ -5730,7 +5868,7 @@
         <v>9689.6800033461368</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <f>'CFH Fact Sheet Backup'!A25</f>
         <v>42978</v>
@@ -5744,7 +5882,7 @@
         <v>9728.7370718842267</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <f>'CFH Fact Sheet Backup'!A26</f>
         <v>43008</v>
@@ -5758,7 +5896,7 @@
         <v>9714.2333905718187</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <f>'CFH Fact Sheet Backup'!A27</f>
         <v>43039</v>
@@ -5772,7 +5910,7 @@
         <v>9922.5415242769959</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <f>'CFH Fact Sheet Backup'!A28</f>
         <v>43069</v>
@@ -5786,7 +5924,7 @@
         <v>9876.7695791219376</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <f>'CFH Fact Sheet Backup'!A29</f>
         <v>43100</v>
@@ -5800,7 +5938,7 @@
         <v>10171.636315951906</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <f>'CFH Fact Sheet Backup'!A30</f>
         <v>43131</v>
@@ -5814,7 +5952,7 @@
         <v>10373.636535259324</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <f>'CFH Fact Sheet Backup'!A31</f>
         <v>43159</v>
@@ -5828,7 +5966,7 @@
         <v>10194.228371371117</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <f>'CFH Fact Sheet Backup'!A32</f>
         <v>43190</v>
@@ -5842,7 +5980,7 @@
         <v>10130.872266994351</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <f>'CFH Fact Sheet Backup'!A33</f>
         <v>43220</v>
@@ -5856,7 +5994,7 @@
         <v>10392.701584778715</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <f>'CFH Fact Sheet Backup'!A34</f>
         <v>43251</v>
@@ -5870,7 +6008,7 @@
         <v>10539.931472084094</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <f>'CFH Fact Sheet Backup'!A35</f>
         <v>43281</v>
@@ -5884,7 +6022,7 @@
         <v>10171.449791601437</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <f>'CFH Fact Sheet Backup'!A36</f>
         <v>43312</v>
@@ -5898,7 +6036,7 @@
         <v>9954.3637089180193</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <f>'CFH Fact Sheet Backup'!A37</f>
         <v>43343</v>
@@ -5912,7 +6050,7 @@
         <v>9778.1208067347798</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <f>'CFH Fact Sheet Backup'!A38</f>
         <v>43373</v>
@@ -5926,7 +6064,7 @@
         <v>9965.6286492358777</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <f>'CFH Fact Sheet Backup'!A39</f>
         <v>43404</v>
@@ -5940,7 +6078,7 @@
         <v>9750.4925938528413</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <f>'CFH Fact Sheet Backup'!A40</f>
         <v>43434</v>
@@ -5954,7 +6092,7 @@
         <v>9695.5866077777318</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <f>'CFH Fact Sheet Backup'!A41</f>
         <v>43465</v>
@@ -5968,7 +6106,7 @@
         <v>9027.7898673190175</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <f>'CFH Fact Sheet Backup'!A42</f>
         <v>43496</v>
@@ -5982,7 +6120,7 @@
         <v>9519.4850119206058</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <f>'CFH Fact Sheet Backup'!A43</f>
         <v>43524</v>
@@ -5996,7 +6134,7 @@
         <v>9615.8615785838429</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <f>'CFH Fact Sheet Backup'!A44</f>
         <v>43555</v>
@@ -6010,7 +6148,7 @@
         <v>9598.6956860874343</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <f>'CFH Fact Sheet Backup'!A45</f>
         <v>43585</v>
@@ -6024,7 +6162,7 @@
         <v>9558.2312065412425</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <f>'CFH Fact Sheet Backup'!A46</f>
         <v>43616</v>
@@ -6038,7 +6176,7 @@
         <v>9236.6406173164705</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <f>'CFH Fact Sheet Backup'!A47</f>
         <v>43646</v>
@@ -6052,7 +6190,7 @@
         <v>9484.6897421781323</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <f>'CFH Fact Sheet Backup'!A48</f>
         <v>43677</v>
@@ -6066,7 +6204,7 @@
         <v>9420.8984143169328</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <f>'CFH Fact Sheet Backup'!A49</f>
         <v>43708</v>
@@ -6080,7 +6218,7 @@
         <v>9202.3766593601904</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <f>'CFH Fact Sheet Backup'!A50</f>
         <v>43738</v>
@@ -6094,7 +6232,7 @@
         <v>9310.4703465848543</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <f>'CFH Fact Sheet Backup'!A51</f>
         <v>43769</v>
@@ -6108,7 +6246,7 @@
         <v>9498.724286487839</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <f>'CFH Fact Sheet Backup'!A52</f>
         <v>43799</v>
@@ -6122,7 +6260,7 @@
         <v>9255.5078379792994</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <f>'CFH Fact Sheet Backup'!A53</f>
         <v>43830</v>
@@ -6136,7 +6274,7 @@
         <v>9722.1126313159712</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="9">
         <f>'CFH Fact Sheet Backup'!A54</f>
         <v>43861</v>
@@ -6150,7 +6288,7 @@
         <v>9006.8708788010008</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="9">
         <f>'CFH Fact Sheet Backup'!A55</f>
         <v>43890</v>
@@ -6164,7 +6302,7 @@
         <v>8552.9045232720237</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="9">
         <f>'CFH Fact Sheet Backup'!A56</f>
         <v>43921</v>
@@ -6178,7 +6316,7 @@
         <v>7457.350924652078</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="9">
         <f>'CFH Fact Sheet Backup'!A57</f>
         <v>43951</v>
@@ -6192,7 +6330,7 @@
         <v>7342.6271446061137</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <f>'CFH Fact Sheet Backup'!A58</f>
         <v>43982</v>
@@ -6206,7 +6344,7 @@
         <v>7661.3294325251009</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <f>'CFH Fact Sheet Backup'!A59</f>
         <v>44012</v>
@@ -6220,7 +6358,7 @@
         <v>7836.1818804593713</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <f>'CFH Fact Sheet Backup'!A60</f>
         <v>44043</v>
@@ -6234,7 +6372,7 @@
         <v>8283.4333593713782</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <f>'CFH Fact Sheet Backup'!A61</f>
         <v>44074</v>
@@ -6248,7 +6386,7 @@
         <v>8843.6564198855303</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <f>'CFH Fact Sheet Backup'!A62</f>
         <v>44104</v>
@@ -6262,7 +6400,7 @@
         <v>8547.2748792396123</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <f>'CFH Fact Sheet Backup'!A63</f>
         <v>44135</v>
@@ -6276,7 +6414,7 @@
         <v>8667.6735213423417</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <f>'CFH Fact Sheet Backup'!A64</f>
         <v>44165</v>
@@ -6290,7 +6428,7 @@
         <v>8972.1264793359278</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <f>'CFH Fact Sheet Backup'!A65</f>
         <v>44196</v>
@@ -6302,6 +6440,48 @@
       <c r="C65" s="88">
         <f>'CFH Fact Sheet Backup'!I65</f>
         <v>9418.4057707242682</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
+        <f>'CFH Fact Sheet Backup'!A66</f>
+        <v>44227</v>
+      </c>
+      <c r="B66" s="87">
+        <f>'CFH Fact Sheet Backup'!B66</f>
+        <v>10455</v>
+      </c>
+      <c r="C66" s="88">
+        <f>'CFH Fact Sheet Backup'!I66</f>
+        <v>9665.7031459310001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="9">
+        <f>'CFH Fact Sheet Backup'!A67</f>
+        <v>44255</v>
+      </c>
+      <c r="B67" s="87">
+        <f>'CFH Fact Sheet Backup'!B67</f>
+        <v>10257</v>
+      </c>
+      <c r="C67" s="88">
+        <f>'CFH Fact Sheet Backup'!I67</f>
+        <v>10291.124945314452</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
+        <f>'CFH Fact Sheet Backup'!A68</f>
+        <v>44286</v>
+      </c>
+      <c r="B68" s="87">
+        <f>'CFH Fact Sheet Backup'!B68</f>
+        <v>10205</v>
+      </c>
+      <c r="C68" s="88">
+        <f>'CFH Fact Sheet Backup'!I68</f>
+        <v>10070.178373801582</v>
       </c>
     </row>
   </sheetData>
@@ -6313,21 +6493,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8850BF-9048-4C57-9616-20C09EA7AD8F}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>'CFH Fact Sheet Backup'!M18</f>
         <v>Share Class/Benchmark</v>
@@ -6360,199 +6540,199 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CFH Fact Sheet Backup'!M19</f>
         <v>Class A</v>
       </c>
       <c r="B2" s="88">
         <f>'CFH Fact Sheet Backup'!N19</f>
-        <v>-4.5</v>
+        <v>-4.03</v>
       </c>
       <c r="C2" s="88">
         <f>'CFH Fact Sheet Backup'!O19</f>
-        <v>-6.52</v>
+        <v>-8.35</v>
       </c>
       <c r="D2" s="88">
         <f>'CFH Fact Sheet Backup'!P19</f>
-        <v>-10.7</v>
+        <v>-4.03</v>
       </c>
       <c r="E2" s="88">
         <f>'CFH Fact Sheet Backup'!Q19</f>
-        <v>-10.7</v>
+        <v>-13.69</v>
       </c>
       <c r="F2" s="88">
         <f>'CFH Fact Sheet Backup'!R19</f>
-        <v>-2.56</v>
+        <v>-4.82</v>
       </c>
       <c r="G2" s="88">
         <f>'CFH Fact Sheet Backup'!S19</f>
-        <v>0.91</v>
+        <v>0.11</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CFH Fact Sheet Backup'!M20</f>
         <v>Class C</v>
       </c>
       <c r="B3" s="88">
         <f>'CFH Fact Sheet Backup'!N20</f>
-        <v>-4.62</v>
+        <v>-4.24</v>
       </c>
       <c r="C3" s="88">
         <f>'CFH Fact Sheet Backup'!O20</f>
-        <v>-6.87</v>
+        <v>-8.67</v>
       </c>
       <c r="D3" s="88">
         <f>'CFH Fact Sheet Backup'!P20</f>
-        <v>-11.37</v>
+        <v>-4.24</v>
       </c>
       <c r="E3" s="88">
         <f>'CFH Fact Sheet Backup'!Q20</f>
-        <v>-11.37</v>
+        <v>-14.36</v>
       </c>
       <c r="F3" s="88">
         <f>'CFH Fact Sheet Backup'!R20</f>
-        <v>-3.25</v>
+        <v>-5.55</v>
       </c>
       <c r="G3" s="88">
         <f>'CFH Fact Sheet Backup'!S20</f>
-        <v>0.18</v>
+        <v>-0.62</v>
       </c>
       <c r="H3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CFH Fact Sheet Backup'!M21</f>
         <v>Class I</v>
       </c>
       <c r="B4" s="88">
         <f>'CFH Fact Sheet Backup'!N21</f>
-        <v>-4.3970865929322898</v>
+        <v>-4.01</v>
       </c>
       <c r="C4" s="88">
         <f>'CFH Fact Sheet Backup'!O21</f>
-        <v>-6.408450704225352</v>
+        <v>-8.23</v>
       </c>
       <c r="D4" s="88">
         <f>'CFH Fact Sheet Backup'!P21</f>
-        <v>-10.505050505050505</v>
+        <v>-4.01</v>
       </c>
       <c r="E4" s="88">
         <f>'CFH Fact Sheet Backup'!Q21</f>
-        <v>-10.505050505050505</v>
+        <v>-13.494956344833431</v>
       </c>
       <c r="F4" s="88">
         <f>'CFH Fact Sheet Backup'!R21</f>
-        <v>-2.2755251656766395</v>
+        <v>-4.5976237898482601</v>
       </c>
       <c r="G4" s="88">
         <f>'CFH Fact Sheet Backup'!S21</f>
-        <v>1.1741391172323423</v>
+        <v>0.3696397300295029</v>
       </c>
       <c r="H4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>'CFH Fact Sheet Backup'!M22</f>
         <v>S&amp;P 500 TR Index</v>
       </c>
       <c r="B5" s="88">
         <f>'CFH Fact Sheet Backup'!N22</f>
-        <v>12.148296749594964</v>
+        <v>6.174872895281176</v>
       </c>
       <c r="C5" s="88">
         <f>'CFH Fact Sheet Backup'!O22</f>
-        <v>22.162360450086339</v>
+        <v>19.073311528105201</v>
       </c>
       <c r="D5" s="88">
         <f>'CFH Fact Sheet Backup'!P22</f>
-        <v>18.398826898926838</v>
+        <v>6.174872895281176</v>
       </c>
       <c r="E5" s="88">
         <f>'CFH Fact Sheet Backup'!Q22</f>
-        <v>18.398826898926838</v>
+        <v>56.351628330676348</v>
       </c>
       <c r="F5" s="88">
         <f>'CFH Fact Sheet Backup'!R22</f>
-        <v>14.178904188562026</v>
+        <v>16.778498637956663</v>
       </c>
       <c r="G5" s="88">
         <f>'CFH Fact Sheet Backup'!S22</f>
-        <v>15.93</v>
+        <v>16.420000000000002</v>
       </c>
       <c r="H5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>'CFH Fact Sheet Backup'!M23</f>
         <v xml:space="preserve">Bloomberg Commodity Index TR </v>
       </c>
       <c r="B6" s="88">
         <f>'CFH Fact Sheet Backup'!N23</f>
-        <v>10.191913841457664</v>
+        <v>6.9202009229975339</v>
       </c>
       <c r="C6" s="88">
         <f>'CFH Fact Sheet Backup'!O23</f>
-        <v>20.191260417402972</v>
+        <v>17.817415680182862</v>
       </c>
       <c r="D6" s="88">
         <f>'CFH Fact Sheet Backup'!P23</f>
-        <v>-3.1238772076496053</v>
+        <v>6.9202009229975339</v>
       </c>
       <c r="E6" s="88">
         <f>'CFH Fact Sheet Backup'!Q23</f>
-        <v>-3.1238772076496053</v>
+        <v>35.036938392052477</v>
       </c>
       <c r="F6" s="88">
         <f>'CFH Fact Sheet Backup'!R23</f>
-        <v>-2.5319693636988938</v>
+        <v>-0.2000995965573904</v>
       </c>
       <c r="G6" s="88">
         <f>'CFH Fact Sheet Backup'!S23</f>
-        <v>-1.1348308507771687</v>
+        <v>0.1272322710464513</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>'CFH Fact Sheet Backup'!M24</f>
         <v>Class A w/ Sales Charge</v>
       </c>
       <c r="B7" s="88">
         <f>'CFH Fact Sheet Backup'!N24</f>
-        <v>-9.99</v>
+        <v>-9.5399999999999991</v>
       </c>
       <c r="C7" s="88">
         <f>'CFH Fact Sheet Backup'!O24</f>
-        <v>-11.86</v>
+        <v>-13.62</v>
       </c>
       <c r="D7" s="88">
         <f>'CFH Fact Sheet Backup'!P24</f>
-        <v>-15.87</v>
+        <v>-9.5399999999999991</v>
       </c>
       <c r="E7" s="88">
         <f>'CFH Fact Sheet Backup'!Q24</f>
-        <v>-15.87</v>
+        <v>-18.649999999999999</v>
       </c>
       <c r="F7" s="88">
         <f>'CFH Fact Sheet Backup'!R24</f>
-        <v>-4.45</v>
+        <v>-6.67</v>
       </c>
       <c r="G7" s="88">
         <f>'CFH Fact Sheet Backup'!S24</f>
-        <v>-0.22</v>
+        <v>-0.96</v>
       </c>
       <c r="H7">
         <v>6</v>
@@ -6567,22 +6747,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFF5D05-6644-4F05-87D5-6589CF2C535F}">
   <sheetPr>
-    <tabColor rgb="FFC00000"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="88"/>
-    <col min="3" max="3" width="10.6640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="88"/>
+    <col min="3" max="3" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -6596,31 +6776,31 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>'CFH Fact Sheet Backup'!M6</f>
         <v>Standard Deviation:</v>
       </c>
       <c r="B2" s="88">
         <f>'CFH Fact Sheet Backup'!O6*100</f>
-        <v>8.4584425885429049</v>
+        <v>8.343156914980316</v>
       </c>
       <c r="C2" s="88">
         <f>'CFH Fact Sheet Backup'!P6*100</f>
-        <v>12.673166081314116</v>
+        <v>12.766508644786379</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>'CFH Fact Sheet Backup'!M7</f>
         <v>Alpha:</v>
       </c>
       <c r="B3" s="88">
         <f>'CFH Fact Sheet Backup'!O7</f>
-        <v>1.1620368748759231</v>
+        <v>0.34876519920877047</v>
       </c>
       <c r="C3" s="88">
         <f>'CFH Fact Sheet Backup'!P7</f>
@@ -6630,14 +6810,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>'CFH Fact Sheet Backup'!M8</f>
         <v>Beta:</v>
       </c>
       <c r="B4" s="88">
         <f>'CFH Fact Sheet Backup'!O8</f>
-        <v>4.986846090862844E-2</v>
+        <v>2.8982607503738631E-2</v>
       </c>
       <c r="C4" s="88">
         <f>'CFH Fact Sheet Backup'!P8</f>
@@ -6647,13 +6827,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>46</v>
       </c>
       <c r="B5" s="88">
         <f>'CFH Fact Sheet Backup'!O9</f>
-        <v>5.7642006536515709E-3</v>
+        <v>2.0277739174538582E-3</v>
       </c>
       <c r="C5" s="88">
         <f>'CFH Fact Sheet Backup'!P9</f>
@@ -6663,29 +6843,29 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="88">
         <f>'CFH Fact Sheet Backup'!O10*100</f>
-        <v>52.380952380952387</v>
+        <v>50</v>
       </c>
       <c r="C6" s="88">
         <f>'CFH Fact Sheet Backup'!P10*100</f>
-        <v>46.031746031746032</v>
+        <v>46.969696969696969</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>48</v>
       </c>
       <c r="B7" s="88">
         <f>'CFH Fact Sheet Backup'!O11*100</f>
-        <v>-13.896987366375122</v>
+        <v>-17.355037252996436</v>
       </c>
       <c r="C7" s="88">
         <f>'CFH Fact Sheet Backup'!P11*100</f>
